--- a/メソッド_変数.xlsx
+++ b/メソッド_変数.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
   <si>
     <t>MainServlet</t>
     <phoneticPr fontId="1"/>
@@ -110,6 +110,252 @@
   </si>
   <si>
     <t>DBAccessor()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>writeTopic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>void  execute(req)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>readTopicList</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>void execute(req)</t>
+  </si>
+  <si>
+    <t>void execute(req)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>deleteTopic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>writeTopic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>deleteTopic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>newAccount</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>logout</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Commanderクラスのインスタンスの生成</t>
+    <rPh sb="20" eb="22">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>commanderクラスのgetQueryメソッドを呼び出しexecuterにアップキャストする</t>
+    <rPh sb="26" eb="27">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Statement型の変数の宣言</t>
+    <rPh sb="9" eb="10">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Executer型の変数の宣言</t>
+    <rPh sb="8" eb="9">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>センゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Executerクラスを継承するクラスにオーバーライドされるメソッド</t>
+    <rPh sb="12" eb="14">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>commanderクラスのgetCommandメソッドを呼び出しexecuterにアップキャストする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>getParameterで受け取った値によって実行したいクラスのインスタンスを返す</t>
+    <rPh sb="13" eb="14">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>getParameterで受け取った値によって実行したいクラスのインスタンスを返す</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンストラクタ。DBAccessorクラスのインスタンスの生成とDBAccessorクラスのgetStmtクラスを呼び出しStatementクラスのインスタンスを生成</t>
+    <rPh sb="29" eb="31">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンストラクタ。OracleDBとのアクセスを行い、Statementインターフェイスを実装するクラスのインスタンスを取得しstmtに格納</t>
+    <rPh sb="23" eb="24">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stmtのgetter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スレッドの作成を行う(INSERT)</t>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スレッドの一覧を取得する(SELECT)</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スレッドの削除を行う(DELETE)</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿を行う(INSERT)</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿の一覧を取得する(SELECT)</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿の削除を行う(DELETE)</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント作成を行う(INSERT)</t>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインを行う(SELECT)</t>
+    <rPh sb="5" eb="6">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウトを行う</t>
+    <rPh sb="6" eb="7">
+      <t>オコナ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -142,7 +388,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -150,15 +396,361 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -440,101 +1032,260 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D16"/>
+  <dimension ref="B1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.53125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.796875" customWidth="1"/>
     <col min="5" max="5" width="14.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="1" spans="2:4" ht="13.15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:4" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="D3" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+      <c r="D4" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="9"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="2:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B6" s="9"/>
+      <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+      <c r="D6" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="25.9" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="12"/>
+      <c r="C7" s="13" t="s">
         <v>8</v>
       </c>
+      <c r="D7" s="14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
+      <c r="D8" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="9"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" spans="2:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B10" s="9"/>
+      <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
+      <c r="D10" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="12"/>
+      <c r="C11" s="13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="D11" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
+      <c r="D12" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="25.9" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="12"/>
+      <c r="C13" s="13" t="s">
         <v>14</v>
       </c>
+      <c r="D13" s="14" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="D14" s="15" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
+      <c r="B15" s="9"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" spans="2:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B16" s="9"/>
+      <c r="C16" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
+      <c r="D16" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="12"/>
+      <c r="C17" s="13" t="s">
         <v>17</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
